--- a/240325 Final Project .xlsx
+++ b/240325 Final Project .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jmangroupltd.sharepoint.com/sites/ClubXcite/Shared Documents/07 2023 Nov - New Wave/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaustubhGupta\Desktop\KG\Main Project\MainProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{61BEFD41-7EC4-423E-8A2B-77F1BF74C83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D8F17E-E6CB-418C-8F53-B2324FA0A0C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA43AF7-2E55-42E1-ADDD-4AD7F396CB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{9293A5F0-AEBF-4395-AEF7-AF70B9C24D95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9293A5F0-AEBF-4395-AEF7-AF70B9C24D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Project " sheetId="2" r:id="rId1"/>
@@ -54,20 +54,6 @@
     <t>Project - 4</t>
   </si>
   <si>
-    <t xml:space="preserve">"Project Problem Statement: Employee Training Management System
-Overview:
-This project aims to create an Employee Training Management System (ETMS) to streamline training for interns and employees. Users will log in to access their training plans and track their progress. After completing training modules, personalized assessment reports will be generated based on their performance.
-Key Features:
-User Login: Secure login page for interns and employees.
-User Profiles: Manage user details like name, email, role, and department.
-Training Plans: Accessible training plans with module details and schedules.
-Progress Tracking: Users can track completed modules and upcoming sessions.
-Training Assessments: Evaluate user performance with quizzes or tests.
-Personalized Reports: Generate reports summarizing user performance and recommendations.
-Data Security: Implement encryption and access controls for user privacy.
-</t>
-  </si>
-  <si>
     <t>Project Problem Statement: Employee Learning Platform
 Overview:
 This project aims to create a simple Learning Platform for employees to access training resources and register for events. Key features include a login page, event creation, user registration, and email notifications.
@@ -355,6 +341,19 @@
   </si>
   <si>
     <t>Yogesh</t>
+  </si>
+  <si>
+    <t>"Project Problem Statement: Employee Training Management System
+Overview:
+This project aims to create an Employee Training Management System (ETMS) to streamline training for interns and employees. Users will log in to access their training plans and track their progress. After completing training modules, personalized assessment reports will be generated based on their performance.
+Key Features:
+User Login: Secure login page for interns and employees.
+User Profiles: Manage user details like name, email, role, and department.
+Training Plans: Accessible training plans with module details and schedules.
+Progress Tracking: Users can track completed modules and upcoming sessions.
+Training Assessments: Evaluate user performance with quizzes or tests.
+Personalized Reports: Generate reports summarizing user performance and recommendations.
+Data Security: Implement encryption and access controls for user privacy.</t>
   </si>
 </sst>
 </file>
@@ -577,15 +576,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -606,6 +596,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -938,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA5B662-E3C4-4060-9190-1D4664385D11}">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25"/>
@@ -995,143 +994,143 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="375.75" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="102.6" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="18"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
@@ -1164,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99584814-2F29-4A55-9241-E4F9D52E2AB3}">
   <dimension ref="A2:G65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1203,13 +1202,13 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1219,10 +1218,10 @@
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1232,10 +1231,10 @@
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1245,10 +1244,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1258,10 +1257,10 @@
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1271,10 +1270,10 @@
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1284,10 +1283,10 @@
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1297,10 +1296,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1310,10 +1309,10 @@
     <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1323,10 +1322,10 @@
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1336,10 +1335,10 @@
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1349,10 +1348,10 @@
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1361,394 +1360,394 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1759,6 +1758,63 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9610cbdb-f32e-47c5-9878-733256204b37">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db400f04-41d7-45ff-b037-2eaacd3460e2" xsi:nil="true"/>
+    <SharedWithUsers xmlns="db400f04-41d7-45ff-b037-2eaacd3460e2">
+      <UserInfo>
+        <DisplayName>Nivya Velangani</DisplayName>
+        <AccountId>110</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Felixraj Chinnappan</DisplayName>
+        <AccountId>42</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sachinvias Gopalakrishnan</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Narendra Jagadesh</DisplayName>
+        <AccountId>30</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Siddharth Sridhar</DisplayName>
+        <AccountId>289</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Vigneshwaran J</DisplayName>
+        <AccountId>81</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dhaneshwaran D</DisplayName>
+        <AccountId>41</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001149C9DEB4166E4D9A547140426BBCA2" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="948ded56df2d60c734864849ce6d03c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9610cbdb-f32e-47c5-9878-733256204b37" xmlns:ns3="db400f04-41d7-45ff-b037-2eaacd3460e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eede21c5af9d816b4023469a42ec39ad" ns2:_="" ns3:_="">
     <xsd:import namespace="9610cbdb-f32e-47c5-9878-733256204b37"/>
@@ -2007,71 +2063,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9610cbdb-f32e-47c5-9878-733256204b37">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="db400f04-41d7-45ff-b037-2eaacd3460e2" xsi:nil="true"/>
-    <SharedWithUsers xmlns="db400f04-41d7-45ff-b037-2eaacd3460e2">
-      <UserInfo>
-        <DisplayName>Nivya Velangani</DisplayName>
-        <AccountId>110</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Felixraj Chinnappan</DisplayName>
-        <AccountId>42</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sachinvias Gopalakrishnan</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Narendra Jagadesh</DisplayName>
-        <AccountId>30</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Siddharth Sridhar</DisplayName>
-        <AccountId>289</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Vigneshwaran J</DisplayName>
-        <AccountId>81</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dhaneshwaran D</DisplayName>
-        <AccountId>41</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AAB7FCB-CD4A-4C7C-B1E6-A9A36999242D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F63D4D81-219B-4355-BF20-0227D685F5B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9610cbdb-f32e-47c5-9878-733256204b37"/>
+    <ds:schemaRef ds:uri="db400f04-41d7-45ff-b037-2eaacd3460e2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231AE957-FDC7-45B5-BE48-153BD871AC5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231AE957-FDC7-45B5-BE48-153BD871AC5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F63D4D81-219B-4355-BF20-0227D685F5B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AAB7FCB-CD4A-4C7C-B1E6-A9A36999242D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9610cbdb-f32e-47c5-9878-733256204b37"/>
+    <ds:schemaRef ds:uri="db400f04-41d7-45ff-b037-2eaacd3460e2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>